--- a/COVID_Exp_2020.xlsx
+++ b/COVID_Exp_2020.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/4490f63018bb2b86/研究・COVID-19_data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="121" documentId="8_{57BF17C5-23F7-43F0-A773-D619DB9E1840}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{2874F26F-48D9-4985-AE74-163521CCD523}"/>
+  <xr:revisionPtr revIDLastSave="128" documentId="8_{57BF17C5-23F7-43F0-A773-D619DB9E1840}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{EBEEF213-27BA-42C4-A038-0DEB0B319C6B}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11500" activeTab="3" xr2:uid="{8B8E5D6E-EC1D-463F-A646-513C239D3A28}"/>
   </bookViews>
@@ -46,7 +46,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="31">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="32">
   <si>
     <t>R0</t>
     <phoneticPr fontId="1"/>
@@ -316,6 +316,19 @@
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
+  <si>
+    <t>「グラフ1」の横軸ラベルを修正。</t>
+    <rPh sb="7" eb="8">
+      <t>ヨコ</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>ジク</t>
+    </rPh>
+    <rPh sb="13" eb="15">
+      <t>シュウセイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
 </sst>
 </file>
 
@@ -28708,8 +28721,9 @@
                 </a:pPr>
                 <a:r>
                   <a:rPr lang="ja-JP" altLang="en-US"/>
-                  <a:t>接触削減開始からの日付</a:t>
+                  <a:t>流行時刻（日）</a:t>
                 </a:r>
+                <a:endParaRPr lang="en-US" altLang="ja-JP"/>
               </a:p>
             </c:rich>
           </c:tx>
@@ -29658,6 +29672,10 @@
 </xdr:wsDr>
 </file>
 
+<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
+</file>
+
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
 <a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office テーマ">
   <a:themeElements>
@@ -29975,9 +29993,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D11D96CF-8B27-4124-A2E3-2F7D39CD8957}">
-  <dimension ref="A1:B1"/>
+  <dimension ref="A1:B2"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.55000000000000004"/>
   <cols>
@@ -29990,6 +30010,14 @@
       </c>
       <c r="B1" t="s">
         <v>19</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="A2" s="3">
+        <v>45873</v>
+      </c>
+      <c r="B2" t="s">
+        <v>31</v>
       </c>
     </row>
   </sheetData>
